--- a/datafiles/conversions terraformer2d.xlsx
+++ b/datafiles/conversions terraformer2d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdalm\AppData\Local\Terraformer2D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d641367ab90122e/_tec/codi/GM/Terraformer2D/datafiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE36332-1512-4C83-9979-3EBB8406BAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{8DE36332-1512-4C83-9979-3EBB8406BAEE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{49EAB8AD-077A-4A45-9A41-AFEC5C32A154}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="630" windowWidth="17700" windowHeight="16515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="450" windowWidth="21225" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>#macro SIMULATION_SPEED</t>
   </si>
@@ -72,24 +72,12 @@
     <t>segons</t>
   </si>
   <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
     <t>kg/year</t>
   </si>
   <si>
-    <t>units/sim_step</t>
-  </si>
-  <si>
     <t>step</t>
   </si>
   <si>
-    <t>units/step</t>
-  </si>
-  <si>
     <t>HAURIA DE SER ANYS PER SIM_STEPS</t>
   </si>
   <si>
@@ -121,6 +109,12 @@
   </si>
   <si>
     <t>system steps / step. Must be &gt; 1. Greater is slower</t>
+  </si>
+  <si>
+    <t>kg/sim_steps</t>
+  </si>
+  <si>
+    <t>kg/step</t>
   </si>
 </sst>
 </file>
@@ -474,7 +468,7 @@
   <dimension ref="A3:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,23 +492,23 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -532,18 +526,16 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -585,7 +577,7 @@
         <v>0.6</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -642,7 +634,7 @@
         <v>2370</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +643,7 @@
         <v>23.7</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -671,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
@@ -699,7 +691,7 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,7 +736,7 @@
         <v>10500</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,25 +748,7 @@
         <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4">
-        <f>+A31*F8</f>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,17 +756,17 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="4">
-        <f>+A32*F8/F3/F4*F5</f>
+        <f>+A32/F3/F4*F5</f>
         <v>1.666666666666667</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,11 +774,11 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4">
-        <f>+A32*F8/(F3*F5)</f>
+        <f>+A32/(F3*F5)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
